--- a/doc/completion/UseCaseConfiguration/800系_ユースケース構成.xlsx
+++ b/doc/completion/UseCaseConfiguration/800系_ユースケース構成.xlsx
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hotel.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カートへ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -332,6 +328,10 @@
   </si>
   <si>
     <t>HotelSearch.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HotelDetail.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -739,21 +739,75 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -765,60 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2058,7 +2058,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2083,20 +2083,20 @@
         <v>12</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="29" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2114,10 +2114,10 @@
       <c r="F3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2129,55 +2129,55 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="60" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="50" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="50" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="51"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2195,26 +2195,26 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
-        <v>44</v>
+      <c r="A8" s="61" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="44"/>
+      <c r="D8" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="34" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -2223,20 +2223,20 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="53"/>
+        <v>39</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -2245,22 +2245,22 @@
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="54"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -2269,13 +2269,13 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="45"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
@@ -2308,6 +2308,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F8:F11"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H6:I7"/>
@@ -2317,18 +2329,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2342,7 +2342,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2379,20 +2379,20 @@
         <v>12</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="59"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="25"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2413,10 +2413,10 @@
       <c r="F3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="59"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -2444,55 +2444,55 @@
       <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="60" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="50" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="50" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="51"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2510,23 +2510,23 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
-        <v>43</v>
+      <c r="A8" s="61" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="54" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -2542,20 +2542,20 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+        <v>46</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -2565,14 +2565,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -2582,6 +2574,14 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
